--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_201__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_201__Reeval_Halton_Modell_1.3.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>15.12227535247803</c:v>
+                  <c:v>15.12227249145508</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.93353271484375</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>43.84043884277344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.87296295166016</c:v>
+                  <c:v>53.87297058105469</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>69.07570648193359</c:v>
@@ -6017,7 +6017,7 @@
                   <c:v>39.74014663696289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.16976547241211</c:v>
+                  <c:v>25.16976356506348</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>76.31632232666016</c:v>
@@ -6029,19 +6029,19 @@
                   <c:v>42.81226348876953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.12980651855469</c:v>
+                  <c:v>77.12979125976562</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>95.97252655029297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.24720001220703</c:v>
+                  <c:v>75.2471923828125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>76.46891784667969</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.15487670898438</c:v>
+                  <c:v>76.15486907958984</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>77.96418762207031</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>53.58304595947266</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>82.09706878662109</c:v>
+                  <c:v>82.09705352783203</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>54.95301818847656</c:v>
@@ -6104,7 +6104,7 @@
                   <c:v>82.74964141845703</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>74.09441375732422</c:v>
+                  <c:v>74.09440612792969</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>90.18640899658203</c:v>
@@ -6113,10 +6113,10 @@
                   <c:v>45.9620361328125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56.07428741455078</c:v>
+                  <c:v>56.07429504394531</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84.38777160644531</c:v>
+                  <c:v>84.38776397705078</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>70.84384155273438</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>35.52431488037109</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.87108612060547</c:v>
+                  <c:v>57.87109375</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>76.26979064941406</c:v>
@@ -6134,7 +6134,7 @@
                   <c:v>76.61592864990234</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40.16997146606445</c:v>
+                  <c:v>40.16997528076172</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>75.80764007568359</c:v>
@@ -6146,7 +6146,7 @@
                   <c:v>43.2387580871582</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.73229217529297</c:v>
+                  <c:v>87.7322998046875</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>28.11551284790039</c:v>
@@ -6164,13 +6164,13 @@
                   <c:v>60.96026611328125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>91.10089874267578</c:v>
+                  <c:v>91.10090637207031</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>69.80115509033203</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>80.93328094482422</c:v>
+                  <c:v>80.93328857421875</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>98.29715728759766</c:v>
@@ -6206,7 +6206,7 @@
                   <c:v>29.35358047485352</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>49.34458923339844</c:v>
+                  <c:v>49.34459686279297</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>74.15383148193359</c:v>
@@ -6233,7 +6233,7 @@
                   <c:v>22.70845413208008</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>76.73931884765625</c:v>
+                  <c:v>76.73931121826172</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>53.16163635253906</c:v>
@@ -6245,7 +6245,7 @@
                   <c:v>44.17939758300781</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>72.90605163574219</c:v>
+                  <c:v>72.90605926513672</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>76.54443359375</c:v>
@@ -6266,13 +6266,13 @@
                   <c:v>39.13481140136719</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>86.52383422851562</c:v>
+                  <c:v>86.52382659912109</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>55.21257781982422</c:v>
+                  <c:v>55.21258544921875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>75.91735076904297</c:v>
+                  <c:v>75.91736602783203</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>68.3099365234375</c:v>
@@ -6979,7 +6979,7 @@
         <v>7.10687</v>
       </c>
       <c r="F2">
-        <v>15.12227535247803</v>
+        <v>15.12227249145508</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>54.3965</v>
       </c>
       <c r="F8">
-        <v>53.87296295166016</v>
+        <v>53.87297058105469</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>25.16976547241211</v>
+        <v>25.16976356506348</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>80.9817</v>
       </c>
       <c r="F16">
-        <v>77.12980651855469</v>
+        <v>77.12979125976562</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>76.8933</v>
       </c>
       <c r="F18">
-        <v>75.24720001220703</v>
+        <v>75.2471923828125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>82.3721</v>
       </c>
       <c r="F20">
-        <v>76.15487670898438</v>
+        <v>76.15486907958984</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>87.8205</v>
       </c>
       <c r="F29">
-        <v>82.09706878662109</v>
+        <v>82.09705352783203</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>75.4286</v>
       </c>
       <c r="F41">
-        <v>74.09441375732422</v>
+        <v>74.09440612792969</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>62.7102</v>
       </c>
       <c r="F44">
-        <v>56.07428741455078</v>
+        <v>56.07429504394531</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>84.85599999999999</v>
       </c>
       <c r="F45">
-        <v>84.38777160644531</v>
+        <v>84.38776397705078</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>56.8273</v>
       </c>
       <c r="F48">
-        <v>57.87108612060547</v>
+        <v>57.87109375</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>32.7716</v>
       </c>
       <c r="F51">
-        <v>40.16997146606445</v>
+        <v>40.16997528076172</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>87.46469999999999</v>
       </c>
       <c r="F55">
-        <v>87.73229217529297</v>
+        <v>87.7322998046875</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>96.3043</v>
       </c>
       <c r="F61">
-        <v>91.10089874267578</v>
+        <v>91.10090637207031</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>81.5342</v>
       </c>
       <c r="F63">
-        <v>80.93328094482422</v>
+        <v>80.93328857421875</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>49.34458923339844</v>
+        <v>49.34459686279297</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>68.94370000000001</v>
       </c>
       <c r="F84">
-        <v>76.73931884765625</v>
+        <v>76.73931121826172</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>71.9828</v>
       </c>
       <c r="F88">
-        <v>72.90605163574219</v>
+        <v>72.90605926513672</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>88.58159999999999</v>
       </c>
       <c r="F95">
-        <v>86.52383422851562</v>
+        <v>86.52382659912109</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>58.8956</v>
       </c>
       <c r="F96">
-        <v>55.21257781982422</v>
+        <v>55.21258544921875</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>76.1473</v>
       </c>
       <c r="F97">
-        <v>75.91735076904297</v>
+        <v>75.91736602783203</v>
       </c>
     </row>
     <row r="98" spans="1:6">
